--- a/InputData/fuels/FPIEBP/Fuel Prod Imp Exp Balancing Priorities.xlsx
+++ b/InputData/fuels/FPIEBP/Fuel Prod Imp Exp Balancing Priorities.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\fuels\FPIEBP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pembinainstitute.sharepoint.com/sites/PRO-EnergyPolicySimulator2021/Shared Documents/Research and Analysis/CANADA-inputData/fuels/FPIEBP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F4E0A33-3857-4E42-99DE-F3DBB58130FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9579E0E4-2ED9-46BC-B9BA-72AAA98DE72B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18705" yWindow="1695" windowWidth="19470" windowHeight="20340" xr2:uid="{B505BEC9-7B7D-48ED-A025-9B3B4252ED08}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B505BEC9-7B7D-48ED-A025-9B3B4252ED08}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="FPIEBP" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,6 +28,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="81">
   <si>
     <t>FPIEBP Fuel Production Import Export Balancing Priorities</t>
   </si>
@@ -52,7 +53,7 @@
     <t>The EPS ensures that the following equation holds true for each fuel type:</t>
   </si>
   <si>
-    <t>BAU in-region consumption = BAU in-region production + imports = exports</t>
+    <t>BAU in-region consumption = BAU in-region production + imports - exports</t>
   </si>
   <si>
     <t>BAU consumption data comes from the various energy-demanding sectors, which have consumption data disaggregated</t>
@@ -61,15 +62,15 @@
     <t>in ways appropriate to each sector (such as by building type and building component in the Buildings Sector, etc.)</t>
   </si>
   <si>
+    <t>Therefore, we cannot alter BAU fuel consumption here.</t>
+  </si>
+  <si>
+    <t>The EPS takes in data for BAU fuel production, imports, and exports, but can only use data for two of those three terms</t>
+  </si>
+  <si>
     <t>for any given fuel.  It must calculate the third of these terms to ensure the equation above holds true.</t>
   </si>
   <si>
-    <t>Therefore, we cannot alter BAU fuel consumption here.</t>
-  </si>
-  <si>
-    <t>The EPS takes in data for BAU fuel production, imports, and exports, but can only use data for two of those three terms</t>
-  </si>
-  <si>
     <t>This variable specifies which of those terms will be calculated, rather than taken in as input data.</t>
   </si>
   <si>
@@ -91,18 +92,72 @@
     <t>the variable designated priority 3 will be altered.</t>
   </si>
   <si>
+    <t xml:space="preserve">Rational For Canada: </t>
+  </si>
+  <si>
+    <t>hard coal</t>
+  </si>
+  <si>
+    <t>natural gas</t>
+  </si>
+  <si>
+    <t>nuclear</t>
+  </si>
+  <si>
+    <t>biomass</t>
+  </si>
+  <si>
+    <t>petroleum gasoline</t>
+  </si>
+  <si>
+    <t>petroleum diesel</t>
+  </si>
+  <si>
+    <t>biofuel gasoline</t>
+  </si>
+  <si>
+    <t>biofuel diesel</t>
+  </si>
+  <si>
+    <t>jet fuel or kerosene</t>
+  </si>
+  <si>
+    <t>lignite</t>
+  </si>
+  <si>
+    <t>crude oil</t>
+  </si>
+  <si>
+    <t>heavy fuel oil</t>
+  </si>
+  <si>
+    <t>LPG propane or butane</t>
+  </si>
+  <si>
+    <t>municipal solid waste</t>
+  </si>
+  <si>
+    <t>hydrogen</t>
+  </si>
+  <si>
+    <t>Guidance on Setting Priorities</t>
+  </si>
+  <si>
     <t>Remember that we are setting which variable is calculated in the BAU case, which has nothing to do with policy effects.</t>
   </si>
   <si>
+    <t>The variable to be calculated should generally be the one for which:</t>
+  </si>
+  <si>
     <t>1. you have the lowest-quality (most uncertain) input data</t>
   </si>
   <si>
-    <t>The variable to be calculated should generally be the one for which:</t>
-  </si>
-  <si>
     <t>and</t>
   </si>
   <si>
+    <t>2. the magnitude is large enough to use as a balancing term</t>
+  </si>
+  <si>
     <t>Three examples may help illustrate:</t>
   </si>
   <si>
@@ -130,9 +185,6 @@
     <t>local demand).</t>
   </si>
   <si>
-    <t>2. the magnitude is large enough to use as a balancing term</t>
-  </si>
-  <si>
     <t>Example 3</t>
   </si>
   <si>
@@ -148,19 +200,22 @@
     <t>exceeding import/export capacity.  Only production has a magnitude suitable for use as a balancing term.</t>
   </si>
   <si>
-    <t>Guidance on Setting Priorities</t>
+    <t>Unit: dimensionless (priority)</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>imports</t>
+  </si>
+  <si>
+    <t>exports</t>
   </si>
   <si>
     <t>electricity (not used in this variable)</t>
   </si>
   <si>
-    <t>hard coal</t>
-  </si>
-  <si>
-    <t>natural gas</t>
-  </si>
-  <si>
-    <t>nuclear</t>
+    <t>Nuclear production/demand is predictable, imports are very small or 0, exports are least certain (depends on intl markets)</t>
   </si>
   <si>
     <t>hydro (is not a fuel)</t>
@@ -172,22 +227,10 @@
     <t>solar (is not a fuel)</t>
   </si>
   <si>
-    <t>biomass</t>
-  </si>
-  <si>
-    <t>petroleum gasoline</t>
-  </si>
-  <si>
-    <t>petroleum diesel</t>
-  </si>
-  <si>
-    <t>biofuel gasoline</t>
-  </si>
-  <si>
-    <t>biofuel diesel</t>
-  </si>
-  <si>
-    <t>jet fuel or kerosene</t>
+    <t>production is constant (at capacity), very little exports, and imports from US are used to meet additional domestic demand</t>
+  </si>
+  <si>
+    <t>Canada exports most of its biodiesel, production fluctuates and is well below capacity</t>
   </si>
   <si>
     <t>heat (not used in this variable)</t>
@@ -196,41 +239,53 @@
     <t>geothermal (is not a fuel)</t>
   </si>
   <si>
-    <t>lignite</t>
-  </si>
-  <si>
-    <t>crude oil</t>
-  </si>
-  <si>
-    <t>heavy fuel oil</t>
-  </si>
-  <si>
-    <t>LPG propane or butane</t>
-  </si>
-  <si>
-    <t>municipal solid waste</t>
-  </si>
-  <si>
-    <t>hydrogen</t>
-  </si>
-  <si>
-    <t>Unit: dimensionless (priority)</t>
-  </si>
-  <si>
-    <t>production</t>
-  </si>
-  <si>
-    <t>imports</t>
-  </si>
-  <si>
-    <t>exports</t>
+    <t xml:space="preserve">production is relatively stable, and determines exports along with intl markets. imports should be relatively stable as they depend on domestic demand in markets without access to domestic oil. </t>
+  </si>
+  <si>
+    <t>Fuel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calculated Value </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rational </t>
+  </si>
+  <si>
+    <t>Exports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lowest value. Most uncertain. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imports </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lowest value. Always exporting excess production </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lowest value. Most uncertain, and least impacting upstream methane emissions </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Near zero import/exprot Production = consumption. Ranking will have no impact on calculation. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Almost nearly equal export/import, so ranking between export/import will have very little impact </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We import majority of jet fuel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using propane numbers. Import values are the lowest and so changes in calculations will have least amount of impact </t>
+  </si>
+  <si>
+    <t xml:space="preserve">No values for import/export. Ranking will have no impact </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,8 +309,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -271,6 +333,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -290,15 +358,15 @@
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -614,11 +682,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{290315BF-FDD8-4070-97AB-AF459B926789}">
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -657,23 +733,23 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>9</v>
+      <c r="A11" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -681,142 +757,300 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="C32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="C33" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D40" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>29</v>
+      </c>
+      <c r="D41" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>30</v>
+      </c>
+      <c r="D42" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>30</v>
-      </c>
+      <c r="D43" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>32</v>
+      </c>
+      <c r="D44" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>33</v>
+      </c>
+      <c r="D45" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>33</v>
+      <c r="A49" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>35</v>
+      <c r="A52" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="68" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -832,7 +1066,9 @@
   </sheetPr>
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -841,120 +1077,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>59</v>
+      <c r="A1" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="B1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="9">
+        <v>3</v>
+      </c>
+      <c r="C3" s="9">
+        <v>1</v>
+      </c>
+      <c r="D3" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="9">
+        <v>3</v>
+      </c>
+      <c r="C4" s="9">
+        <v>1</v>
+      </c>
+      <c r="D4" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="9">
+        <v>3</v>
+      </c>
+      <c r="C5" s="9">
+        <v>1</v>
+      </c>
+      <c r="D5" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B7" s="5">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="7">
-        <v>0</v>
-      </c>
-      <c r="C2" s="7">
-        <v>0</v>
-      </c>
-      <c r="D2" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="7">
-        <v>0</v>
-      </c>
-      <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="7">
-        <v>0</v>
-      </c>
-      <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="7">
-        <v>0</v>
-      </c>
-      <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7">
+      <c r="B8" s="5">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>45</v>
+      <c r="A9" t="s">
+        <v>22</v>
       </c>
       <c r="B9" s="9">
         <v>1</v>
@@ -965,53 +1201,53 @@
       <c r="D9" s="9">
         <v>2</v>
       </c>
-      <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>46</v>
+      <c r="A10" t="s">
+        <v>23</v>
       </c>
       <c r="B10" s="9">
+        <v>3</v>
+      </c>
+      <c r="C10" s="9">
         <v>1</v>
-      </c>
-      <c r="C10" s="9">
-        <v>3</v>
       </c>
       <c r="D10" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>47</v>
+      <c r="A11" t="s">
+        <v>24</v>
       </c>
       <c r="B11" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" s="9">
         <v>3</v>
       </c>
       <c r="D11" s="9">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E11" s="8"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>48</v>
+      <c r="A12" t="s">
+        <v>25</v>
       </c>
       <c r="B12" s="9">
+        <v>3</v>
+      </c>
+      <c r="C12" s="9">
         <v>1</v>
-      </c>
-      <c r="C12" s="9">
-        <v>3</v>
       </c>
       <c r="D12" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>49</v>
+      <c r="A13" t="s">
+        <v>26</v>
       </c>
       <c r="B13" s="9">
         <v>1</v>
@@ -1024,106 +1260,106 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="9">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14">
         <v>1</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14">
         <v>3</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="7">
-        <v>0</v>
-      </c>
-      <c r="C15" s="7">
-        <v>0</v>
-      </c>
-      <c r="D15" s="7">
+      <c r="A15" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="5">
+        <v>0</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0</v>
+      </c>
+      <c r="D15" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" s="7">
-        <v>0</v>
-      </c>
-      <c r="C16" s="7">
-        <v>0</v>
-      </c>
-      <c r="D16" s="7">
+      <c r="A16" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="5">
+        <v>0</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0</v>
+      </c>
+      <c r="D16" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>53</v>
+      <c r="A17" t="s">
+        <v>28</v>
       </c>
       <c r="B17" s="9">
+        <v>3</v>
+      </c>
+      <c r="C17" s="9">
+        <v>2</v>
+      </c>
+      <c r="D17" s="9">
         <v>1</v>
       </c>
-      <c r="C17" s="9">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="9">
         <v>3</v>
-      </c>
-      <c r="D17" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" s="9">
-        <v>2</v>
       </c>
       <c r="C18" s="9">
         <v>1</v>
       </c>
       <c r="D18" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="9">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" s="9">
+      <c r="C19" s="9">
         <v>1</v>
-      </c>
-      <c r="C19" s="9">
-        <v>3</v>
       </c>
       <c r="D19" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>56</v>
+      <c r="A20" t="s">
+        <v>31</v>
       </c>
       <c r="B20" s="9">
+        <v>3</v>
+      </c>
+      <c r="C20" s="9">
         <v>1</v>
-      </c>
-      <c r="C20" s="9">
-        <v>3</v>
       </c>
       <c r="D20" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>57</v>
+      <c r="A21" t="s">
+        <v>32</v>
       </c>
       <c r="B21" s="9">
         <v>1</v>
@@ -1136,20 +1372,356 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>58</v>
+      <c r="A22" t="s">
+        <v>33</v>
       </c>
       <c r="B22" s="9">
         <v>1</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="9">
         <v>3</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="9">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fdee17017a9ad5b872047a216f95da93">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="37825e9edfcb807d863c63152c6d8635" ns2:_="" ns3:_="" ns4:_="">
+    <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
+    <xsd:import namespace="de340059-046a-4f1a-8b62-ade039df3700"/>
+    <xsd:import namespace="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:l787e5950a9249679d0130235a9a791b" minOccurs="0"/>
+                <xsd:element ref="ns2:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:ff7c4ad8664a4671b57370e258acad6a" minOccurs="0"/>
+                <xsd:element ref="ns2:of2ed5e60f3c4f8984f283882cb94320" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="52604411-7aeb-406e-8b34-4ce79a7293cc" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="l787e5950a9249679d0130235a9a791b" ma:index="9" nillable="true" ma:taxonomy="true" ma:internalName="l787e5950a9249679d0130235a9a791b" ma:taxonomyFieldName="ProposedRetention" ma:displayName="ProposedRetention" ma:default="" ma:fieldId="{5787e595-0a92-4967-9d01-30235a9a791b}" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="1899fd67-b032-445b-9d35-9f66b9475fa9" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="10" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{e351e87d-f0a7-48fd-ab84-339d8843ff25}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="d580559a-617d-4d7d-8fb9-71ff64b58360">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="ff7c4ad8664a4671b57370e258acad6a" ma:index="12" nillable="true" ma:taxonomy="true" ma:internalName="ff7c4ad8664a4671b57370e258acad6a" ma:taxonomyFieldName="Region" ma:displayName="Region" ma:default="" ma:fieldId="{ff7c4ad8-664a-4671-b573-70e258acad6a}" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="d0ef5e64-ccf8-4d0f-8f9e-d1bc0965d8f9" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="of2ed5e60f3c4f8984f283882cb94320" ma:index="14" nillable="true" ma:taxonomy="true" ma:internalName="of2ed5e60f3c4f8984f283882cb94320" ma:taxonomyFieldName="Topics" ma:displayName="Topics" ma:default="" ma:fieldId="{8f2ed5e6-0f3c-4f89-84f2-83882cb94320}" ma:taxonomyMulti="true" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="638057b0-b21b-42a9-a985-95f1f9da3292" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="de340059-046a-4f1a-8b62-ade039df3700" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="15" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="16" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="19" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="20" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="21" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="22" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="23" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="24" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="26" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="27" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d580559a-617d-4d7d-8fb9-71ff64b58360" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </of2ed5e60f3c4f8984f283882cb94320>
+    <ff7c4ad8664a4671b57370e258acad6a xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ff7c4ad8664a4671b57370e258acad6a>
+    <l787e5950a9249679d0130235a9a791b xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </l787e5950a9249679d0130235a9a791b>
+    <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="de340059-046a-4f1a-8b62-ade039df3700">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <SharedWithUsers xmlns="d580559a-617d-4d7d-8fb9-71ff64b58360">
+      <UserInfo>
+        <DisplayName>Eyab Al-Aini</DisplayName>
+        <AccountId>13</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{88BF3ADC-4C54-4AEE-889E-AB5DC9A4CF73}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F18BA12E-EB8F-4256-BE75-BBE92DE599D7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
+    <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
+    <ds:schemaRef ds:uri="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED1ACC66-BCA9-4E5C-8357-14BEAE607DF4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
+    <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
+    <ds:schemaRef ds:uri="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/InputData/fuels/FPIEBP/Fuel Prod Imp Exp Balancing Priorities.xlsx
+++ b/InputData/fuels/FPIEBP/Fuel Prod Imp Exp Balancing Priorities.xlsx
@@ -1400,8 +1400,8 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fdee17017a9ad5b872047a216f95da93">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="37825e9edfcb807d863c63152c6d8635" ns2:_="" ns3:_="" ns4:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b14dc5c440242a7f7d08dacad5c84df8">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="71a713f9ca42e4f2f02aa83a9b465f65" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
     <xsd:import namespace="de340059-046a-4f1a-8b62-ade039df3700"/>
     <xsd:import namespace="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
@@ -1427,6 +1427,7 @@
                 <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -1527,6 +1528,11 @@
     <xsd:element name="MediaServiceDateTaken" ma:index="27" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="28" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -1695,23 +1701,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F18BA12E-EB8F-4256-BE75-BBE92DE599D7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
-    <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
-    <ds:schemaRef ds:uri="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62D9A41F-50BE-4C11-ADDC-BB28F2B46226}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
